--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E8" s="3">
         <v>77800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>84500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>86200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>80800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E9" s="3">
         <v>33700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>32900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E10" s="3">
         <v>44100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>40400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
         <v>13600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1040,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1049,7 +1072,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E17" s="3">
         <v>76400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>75400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>900</v>
       </c>
       <c r="F20" s="3">
         <v>900</v>
       </c>
       <c r="G20" s="3">
+        <v>900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>600</v>
       </c>
       <c r="P20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>4100</v>
       </c>
       <c r="J21" s="3">
         <v>4100</v>
       </c>
       <c r="K21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,10 +1315,10 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2600</v>
       </c>
       <c r="J23" s="3">
         <v>2600</v>
       </c>
       <c r="K23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -1588,11 +1649,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>1300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-900</v>
       </c>
       <c r="F32" s="3">
         <v>-900</v>
       </c>
       <c r="G32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-600</v>
       </c>
       <c r="P32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,60 +2053,64 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>136700</v>
+      </c>
+      <c r="E41" s="3">
         <v>133800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>141800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>139400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>140000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>149200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>153300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>145100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>1200</v>
@@ -2028,8 +2118,8 @@
       <c r="G42" s="3">
         <v>1200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
+      <c r="H42" s="3">
+        <v>1200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -2037,8 +2127,8 @@
       <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39700</v>
+        <v>82600</v>
       </c>
       <c r="E43" s="3">
-        <v>41500</v>
+        <v>43000</v>
       </c>
       <c r="F43" s="3">
-        <v>49000</v>
+        <v>43900</v>
       </c>
       <c r="G43" s="3">
+        <v>51400</v>
+      </c>
+      <c r="H43" s="3">
         <v>81600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>56900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>83500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>69400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,119 +2239,128 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E45" s="3">
-        <v>23400</v>
+        <v>19800</v>
       </c>
       <c r="F45" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="3">
+        <v>20100</v>
+      </c>
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E46" s="3">
         <v>196600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>207900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>223700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>244300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>214900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>224800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>246400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>206100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>215600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>229900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E48" s="3">
         <v>45700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>29600</v>
       </c>
       <c r="H48" s="3">
         <v>29600</v>
       </c>
       <c r="I48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J48" s="3">
         <v>29700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>30500</v>
       </c>
       <c r="N48" s="3">
         <v>30500</v>
       </c>
       <c r="O48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="P48" s="3">
         <v>30900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2439,46 @@
         <v>14300</v>
       </c>
       <c r="E49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F49" s="3">
         <v>14100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>14000</v>
       </c>
       <c r="G49" s="3">
         <v>14000</v>
       </c>
       <c r="H49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I49" s="3">
         <v>13800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>12000</v>
       </c>
       <c r="K49" s="3">
         <v>12000</v>
       </c>
       <c r="L49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="M49" s="3">
         <v>11800</v>
       </c>
       <c r="N49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O49" s="3">
         <v>11500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="F52" s="3">
-        <v>28900</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
+        <v>28500</v>
+      </c>
+      <c r="H52" s="3">
         <v>29200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>322800</v>
+      </c>
+      <c r="E54" s="3">
         <v>275100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>288400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>311400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>317200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>270500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>279900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>291200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>299800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>255600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>257500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>265800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>280900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,60 +2749,64 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -2702,189 +2836,204 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120400</v>
+        <v>162600</v>
       </c>
       <c r="E59" s="3">
-        <v>131800</v>
+        <v>120300</v>
       </c>
       <c r="F59" s="3">
+        <v>131700</v>
+      </c>
+      <c r="G59" s="3">
         <v>143400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>155600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>115600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>126900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>117000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>127500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>137800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E60" s="3">
         <v>126500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>140100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>166000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>126700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>147900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>175400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>129700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>149500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E61" s="3">
         <v>12500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19000</v>
+        <v>21300</v>
       </c>
       <c r="E62" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="F62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G62" s="3">
         <v>16200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4900</v>
       </c>
       <c r="J62" s="3">
         <v>4900</v>
       </c>
       <c r="K62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E66" s="3">
         <v>158000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>172500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>183900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>144500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>156400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>165900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>146400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>147900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E76" s="3">
         <v>117100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>130300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>133200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>123600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>105600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>109200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>109600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>112700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,22 +3836,22 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1400</v>
       </c>
       <c r="H83" s="3">
         <v>1400</v>
       </c>
       <c r="I83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J83" s="3">
         <v>1300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3664,7 +3863,7 @@
         <v>1400</v>
       </c>
       <c r="N83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O83" s="3">
         <v>1500</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>14200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1100</v>
       </c>
       <c r="K91" s="3">
         <v>-1100</v>
       </c>
       <c r="L91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4313,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1300</v>
       </c>
       <c r="K94" s="3">
         <v>-1300</v>
@@ -4122,16 +4352,19 @@
         <v>-1300</v>
       </c>
       <c r="N94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4391,46 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-1300</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1800</v>
       </c>
       <c r="P100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E8" s="3">
         <v>78600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>77800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>84500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>80800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>76000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>73300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E9" s="3">
         <v>33200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>32900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E10" s="3">
         <v>45400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>40400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1079,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1066,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1075,7 +1097,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E17" s="3">
         <v>78200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>75400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>900</v>
       </c>
       <c r="G20" s="3">
         <v>900</v>
       </c>
       <c r="H20" s="3">
+        <v>900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>600</v>
       </c>
       <c r="Q20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4100</v>
       </c>
       <c r="K21" s="3">
         <v>4100</v>
       </c>
       <c r="L21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1318,10 +1357,10 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1353,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2600</v>
       </c>
       <c r="K23" s="3">
         <v>2600</v>
       </c>
       <c r="L23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1652,11 +1712,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>1300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1664,11 +1724,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-900</v>
       </c>
       <c r="G32" s="3">
         <v>-900</v>
       </c>
       <c r="H32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-600</v>
       </c>
       <c r="Q32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,66 +2139,70 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E41" s="3">
         <v>136700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>141800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>151000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>139400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>140000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>145100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>1200</v>
@@ -2121,8 +2210,8 @@
       <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
+      <c r="I42" s="3">
+        <v>1200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -2130,8 +2219,8 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E43" s="3">
         <v>82600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>81600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>46400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>69400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E45" s="3">
         <v>23400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E46" s="3">
         <v>242600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>207900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>223700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>244300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>214900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>224800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>246400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>206100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>215600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>229900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2345,16 +2449,16 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>24</v>
@@ -2362,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E48" s="3">
         <v>47000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>29600</v>
       </c>
       <c r="I48" s="3">
         <v>29600</v>
       </c>
       <c r="J48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K48" s="3">
         <v>29700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>30500</v>
       </c>
       <c r="O48" s="3">
         <v>30500</v>
       </c>
       <c r="P48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>30900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="E49" s="3">
         <v>14300</v>
       </c>
       <c r="F49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G49" s="3">
         <v>14100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>14000</v>
       </c>
       <c r="H49" s="3">
         <v>14000</v>
       </c>
       <c r="I49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J49" s="3">
         <v>13800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>12000</v>
       </c>
       <c r="L49" s="3">
         <v>12000</v>
       </c>
       <c r="M49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="N49" s="3">
         <v>11800</v>
       </c>
       <c r="O49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P49" s="3">
         <v>11500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E52" s="3">
         <v>18600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>29200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E54" s="3">
         <v>322800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>275100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>288400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>311400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>317200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>270500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>279900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>291200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>299800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>255600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>257500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>265800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>280900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,66 +2879,70 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -2839,201 +2972,216 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E59" s="3">
         <v>162600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>143400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>155600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>126900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>117000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>127500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>137800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E60" s="3">
         <v>173000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>126500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>140100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>152200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>166000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>138300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>147900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>175400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>128100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>129700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>149500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E61" s="3">
         <v>12400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
         <v>21300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>19800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4900</v>
       </c>
       <c r="K62" s="3">
         <v>4900</v>
       </c>
       <c r="L62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M62" s="3">
         <v>5400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E66" s="3">
         <v>206700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>172500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>183900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>144500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>156400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>146400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>147900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>168200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E76" s="3">
         <v>116100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>117100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>130300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>123600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>105600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>109200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>109600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>112700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,22 +4037,22 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1400</v>
       </c>
       <c r="I83" s="3">
         <v>1400</v>
       </c>
       <c r="J83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1400</v>
       </c>
       <c r="L83" s="3">
         <v>1400</v>
@@ -3866,7 +4064,7 @@
         <v>1400</v>
       </c>
       <c r="O83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P83" s="3">
         <v>1500</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1100</v>
       </c>
       <c r="L91" s="3">
         <v>-1100</v>
       </c>
       <c r="M91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,34 +4542,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1300</v>
       </c>
       <c r="L94" s="3">
         <v>-1300</v>
@@ -4355,16 +4584,19 @@
         <v>-1300</v>
       </c>
       <c r="O94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,43 +4627,46 @@
         <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-1300</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,149 +751,158 @@
         <v>74100</v>
       </c>
       <c r="E8" s="3">
+        <v>74100</v>
+      </c>
+      <c r="F8" s="3">
         <v>78600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>77800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>86200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>76900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>73300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E9" s="3">
         <v>32400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>32900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E10" s="3">
         <v>41700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>40400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1105,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1091,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1100,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E17" s="3">
         <v>75100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>75400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>900</v>
       </c>
       <c r="H20" s="3">
         <v>900</v>
       </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>600</v>
       </c>
       <c r="R20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4100</v>
       </c>
       <c r="L21" s="3">
         <v>4100</v>
       </c>
       <c r="M21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1360,10 +1400,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2600</v>
       </c>
       <c r="L23" s="3">
         <v>2600</v>
       </c>
       <c r="M23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,19 +1753,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>1300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-900</v>
       </c>
       <c r="H32" s="3">
         <v>-900</v>
       </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-600</v>
       </c>
       <c r="R32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-16500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-16500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E41" s="3">
         <v>140200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>136700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>141800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>139400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>140000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>149200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>153300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>145100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2201,11 +2291,11 @@
       <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>1200</v>
@@ -2213,8 +2303,8 @@
       <c r="I42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
+      <c r="J42" s="3">
+        <v>1200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -2222,8 +2312,8 @@
       <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E43" s="3">
         <v>48500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>81600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>50800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>42400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E45" s="3">
         <v>21500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E46" s="3">
         <v>210200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>196600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>207900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>223700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>244300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>214900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>224800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>246400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>204400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>206100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>215600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>229900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2452,16 +2557,16 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>24</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E48" s="3">
         <v>45000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>47000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>29600</v>
       </c>
       <c r="J48" s="3">
         <v>29600</v>
       </c>
       <c r="K48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="L48" s="3">
         <v>29700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>30500</v>
       </c>
       <c r="P48" s="3">
         <v>30500</v>
       </c>
       <c r="Q48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="R48" s="3">
         <v>30900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E49" s="3">
         <v>14000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>14300</v>
       </c>
       <c r="F49" s="3">
         <v>14300</v>
       </c>
       <c r="G49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H49" s="3">
         <v>14100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>14000</v>
       </c>
       <c r="I49" s="3">
         <v>14000</v>
       </c>
       <c r="J49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K49" s="3">
         <v>13800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>12000</v>
       </c>
       <c r="M49" s="3">
         <v>12000</v>
       </c>
       <c r="N49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="O49" s="3">
         <v>11800</v>
       </c>
       <c r="P49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>11500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E52" s="3">
         <v>17600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>29200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>23100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E54" s="3">
         <v>287000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>322800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>275100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>288400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>311400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>317200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>270500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>291200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>299800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>255600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>257500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>265800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>280900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,13 +3073,13 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -2975,213 +3109,228 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E59" s="3">
         <v>132500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>143400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>155600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>115600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>126900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>160200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>117000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>127500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>137800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E60" s="3">
         <v>139400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>173000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>126500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>140100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>152200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>166000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>138300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>147900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>175400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>128100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>136100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>149500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E61" s="3">
         <v>12200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E62" s="3">
         <v>21500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>19800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4900</v>
       </c>
       <c r="L62" s="3">
         <v>4900</v>
       </c>
       <c r="M62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>173800</v>
+      </c>
+      <c r="E66" s="3">
         <v>173100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>172500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>183900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>144500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>165900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>194200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>147900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>168200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-70200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E76" s="3">
         <v>113900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>117100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>130300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>123600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>125300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>105600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>109200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>109600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>111000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>112700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-16500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -4040,22 +4239,22 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1400</v>
       </c>
       <c r="J83" s="3">
         <v>1400</v>
       </c>
       <c r="K83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L83" s="3">
         <v>1300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1400</v>
       </c>
       <c r="M83" s="3">
         <v>1400</v>
@@ -4067,7 +4266,7 @@
         <v>1400</v>
       </c>
       <c r="P83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Q83" s="3">
         <v>1500</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1100</v>
       </c>
       <c r="M91" s="3">
         <v>-1100</v>
       </c>
       <c r="N91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,37 +4772,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1300</v>
       </c>
       <c r="M94" s="3">
         <v>-1300</v>
@@ -4587,16 +4817,19 @@
         <v>-1300</v>
       </c>
       <c r="P94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4630,43 +4864,46 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-1300</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-1800</v>
       </c>
       <c r="R100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74100</v>
+        <v>76700</v>
       </c>
       <c r="E8" s="3">
         <v>74100</v>
       </c>
       <c r="F8" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G8" s="3">
         <v>78600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>77800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>76400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>76900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E9" s="3">
         <v>30800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>37000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>32900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E10" s="3">
         <v>43300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>42200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1117,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1126,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E17" s="3">
         <v>71800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>75100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>80600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>75400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,119 +1312,126 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>900</v>
       </c>
       <c r="I20" s="3">
         <v>900</v>
       </c>
       <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>600</v>
       </c>
       <c r="S20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>4100</v>
       </c>
       <c r="M21" s="3">
         <v>4100</v>
       </c>
       <c r="N21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1403,10 +1443,10 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2600</v>
       </c>
       <c r="M23" s="3">
         <v>2600</v>
       </c>
       <c r="N23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1767,11 +1828,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>1300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-900</v>
       </c>
       <c r="I32" s="3">
         <v>-900</v>
       </c>
       <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-600</v>
       </c>
       <c r="S32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E41" s="3">
         <v>140700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>136700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>151000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>139400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>149200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>153300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>145100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2294,11 +2384,11 @@
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>1200</v>
@@ -2306,8 +2396,8 @@
       <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>24</v>
+      <c r="K42" s="3">
+        <v>1200</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>24</v>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E43" s="3">
         <v>44300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>43000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>81600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>50800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>42400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>46400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,119 +2535,128 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>205800</v>
+      </c>
+      <c r="E46" s="3">
         <v>203900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>210200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>196600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>207900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>223700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>244300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>204000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>214900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>224800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>246400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>204400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>206100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>215600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>229900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2560,16 +2665,16 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>24</v>
@@ -2577,8 +2682,8 @@
       <c r="L47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E48" s="3">
         <v>48800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>47000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29600</v>
       </c>
       <c r="K48" s="3">
         <v>29600</v>
       </c>
       <c r="L48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="M48" s="3">
         <v>29700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>30500</v>
       </c>
       <c r="Q48" s="3">
         <v>30500</v>
       </c>
       <c r="R48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="S48" s="3">
         <v>30900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E49" s="3">
         <v>14300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>14300</v>
       </c>
       <c r="G49" s="3">
         <v>14300</v>
       </c>
       <c r="H49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I49" s="3">
         <v>14100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>14000</v>
       </c>
       <c r="J49" s="3">
         <v>14000</v>
       </c>
       <c r="K49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L49" s="3">
         <v>13800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>12000</v>
       </c>
       <c r="N49" s="3">
         <v>12000</v>
       </c>
       <c r="O49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="P49" s="3">
         <v>11800</v>
       </c>
       <c r="Q49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R49" s="3">
         <v>11500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E52" s="3">
         <v>18800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>22800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284900</v>
+      </c>
+      <c r="E54" s="3">
         <v>286000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>287000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>322800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>275100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>288400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>311400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>317200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>270500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>291200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>299800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>255600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>257500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>265800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>280900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,13 +3210,13 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3112,225 +3246,240 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E59" s="3">
         <v>130900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>132500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>120300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>143400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>155600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>115600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>126900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>160200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>117000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>127500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>137800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E60" s="3">
         <v>137400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>139400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>173000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>126500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>140100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>152200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>166000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>138300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>147900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>175400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>128100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>129700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>136100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>149500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>4900</v>
       </c>
       <c r="M62" s="3">
         <v>4900</v>
       </c>
       <c r="N62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O62" s="3">
         <v>5400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>166800</v>
+      </c>
+      <c r="E66" s="3">
         <v>173800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>183900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>144500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>165900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>194200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>146400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>147900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>168200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-75600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-65000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E76" s="3">
         <v>112200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>117100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>130300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>133200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>125300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>105600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>109200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>109600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>111000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>112700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1700</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -4242,22 +4441,22 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
       </c>
       <c r="L83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M83" s="3">
         <v>1300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1400</v>
       </c>
       <c r="N83" s="3">
         <v>1400</v>
@@ -4269,7 +4468,7 @@
         <v>1400</v>
       </c>
       <c r="Q83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="R83" s="3">
         <v>1500</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>14200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1100</v>
       </c>
       <c r="N91" s="3">
         <v>-1100</v>
       </c>
       <c r="O91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,40 +5002,43 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1300</v>
       </c>
       <c r="N94" s="3">
         <v>-1300</v>
@@ -4820,16 +5050,19 @@
         <v>-1300</v>
       </c>
       <c r="Q94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,13 +5082,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
         <v>-1400</v>
@@ -4867,43 +5101,46 @@
         <v>-1400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-1400</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-1300</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-1800</v>
       </c>
       <c r="S100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E8" s="3">
         <v>76700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>74100</v>
       </c>
       <c r="F8" s="3">
         <v>74100</v>
       </c>
       <c r="G8" s="3">
+        <v>74100</v>
+      </c>
+      <c r="H8" s="3">
         <v>78600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>77800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>76400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>76000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>73300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E9" s="3">
         <v>30700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>37000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>32900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E10" s="3">
         <v>46000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>43300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>40400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>42200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>36500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>40400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E12" s="3">
         <v>14200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1143,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1152,7 +1175,7 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E17" s="3">
         <v>72600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>71800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>75100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>78200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>75400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>900</v>
       </c>
       <c r="J20" s="3">
         <v>900</v>
       </c>
       <c r="K20" s="3">
+        <v>900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>600</v>
       </c>
       <c r="T20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E21" s="3">
         <v>5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>4100</v>
       </c>
       <c r="N21" s="3">
         <v>4100</v>
       </c>
       <c r="O21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1434,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1446,10 +1486,10 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2600</v>
       </c>
       <c r="N23" s="3">
         <v>2600</v>
       </c>
       <c r="O23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,13 +1875,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>24</v>
@@ -1831,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1843,11 +1904,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>1300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-900</v>
       </c>
       <c r="J32" s="3">
         <v>-900</v>
       </c>
       <c r="K32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-600</v>
       </c>
       <c r="T32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>142500</v>
+      </c>
+      <c r="E41" s="3">
         <v>143400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>136700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>133800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>141800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>151000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>138100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>140000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>149200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>153300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>145100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,11 +2477,11 @@
       <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>1200</v>
@@ -2399,8 +2489,8 @@
       <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>24</v>
+      <c r="L42" s="3">
+        <v>1200</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>24</v>
@@ -2408,8 +2498,8 @@
       <c r="N42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E43" s="3">
         <v>43100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>51400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>81600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>83500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>50800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>42400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>46400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>69400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E45" s="3">
         <v>19300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E46" s="3">
         <v>205800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>203900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>210200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>242600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>207900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>223700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>244300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>204000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>214900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>224800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>246400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>204400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>206100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>215600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>229900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2764,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2668,16 +2773,16 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>24</v>
@@ -2685,8 +2790,8 @@
       <c r="M47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E48" s="3">
         <v>45500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>47000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>29600</v>
       </c>
       <c r="L48" s="3">
         <v>29600</v>
       </c>
       <c r="M48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="N48" s="3">
         <v>29700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>30500</v>
       </c>
       <c r="R48" s="3">
         <v>30500</v>
       </c>
       <c r="S48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="T48" s="3">
         <v>30900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E49" s="3">
         <v>14500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>14300</v>
       </c>
       <c r="H49" s="3">
         <v>14300</v>
       </c>
       <c r="I49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J49" s="3">
         <v>14100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>14000</v>
       </c>
       <c r="K49" s="3">
         <v>14000</v>
       </c>
       <c r="L49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M49" s="3">
         <v>13800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>12000</v>
       </c>
       <c r="O49" s="3">
         <v>12000</v>
       </c>
       <c r="P49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="Q49" s="3">
         <v>11800</v>
       </c>
       <c r="R49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="S49" s="3">
         <v>11500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E52" s="3">
         <v>19100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>18700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>24200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>350800</v>
+      </c>
+      <c r="E54" s="3">
         <v>284900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>286000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>287000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>322800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>275100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>288400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>311400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>317200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>270500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>279900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>291200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>299800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>255600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>257500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>265800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>280900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3272,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
         <v>8300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3213,13 +3347,13 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3249,125 +3383,134 @@
         <v>500</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E59" s="3">
         <v>122500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>130900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>132500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>120300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>143400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>155600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>115600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>126900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>138200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>160200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>117000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>127500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>137800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E60" s="3">
         <v>131200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>137400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>139400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>173000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>126500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>140100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>152200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>166000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>147900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>175400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>128100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>129700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>136100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>149500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,111 +3518,117 @@
         <v>12000</v>
       </c>
       <c r="E61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F61" s="3">
         <v>12100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E62" s="3">
         <v>23600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4900</v>
       </c>
       <c r="N62" s="3">
         <v>4900</v>
       </c>
       <c r="O62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E66" s="3">
         <v>166800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>173100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>181200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>183900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>144500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>156400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>165900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>194200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>146400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>147900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>154800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>168200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-71700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-75600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-65000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E76" s="3">
         <v>118100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>112200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>113900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>117100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>130300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>133200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>105600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>109200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>109600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>112700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,19 +4621,20 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -4444,22 +4643,22 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1400</v>
       </c>
       <c r="L83" s="3">
         <v>1400</v>
       </c>
       <c r="M83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N83" s="3">
         <v>1300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1400</v>
       </c>
       <c r="O83" s="3">
         <v>1400</v>
@@ -4471,7 +4670,7 @@
         <v>1400</v>
       </c>
       <c r="R83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="S83" s="3">
         <v>1500</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1100</v>
       </c>
       <c r="O91" s="3">
         <v>-1100</v>
       </c>
       <c r="P91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,43 +5232,46 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1300</v>
       </c>
       <c r="O94" s="3">
         <v>-1300</v>
@@ -5053,16 +5283,19 @@
         <v>-1300</v>
       </c>
       <c r="R94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,7 +5326,7 @@
         <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
         <v>-1400</v>
@@ -5104,43 +5338,46 @@
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-1300</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-1800</v>
       </c>
       <c r="T100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QADA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>QADA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,176 +762,185 @@
         <v>83000</v>
       </c>
       <c r="E8" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F8" s="3">
         <v>76700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>74100</v>
       </c>
       <c r="G8" s="3">
         <v>74100</v>
       </c>
       <c r="H8" s="3">
+        <v>74100</v>
+      </c>
+      <c r="I8" s="3">
         <v>78600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>77800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>76900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>76000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>73300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>69500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E9" s="3">
         <v>31500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>32400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>37000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>37400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>32900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E10" s="3">
         <v>51500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>43300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>40400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>36500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>36400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E12" s="3">
         <v>14700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1146,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1160,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1169,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1178,7 +1200,7 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E17" s="3">
         <v>75700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>71800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>75100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>80600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>76500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>75400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>72700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>900</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
       </c>
       <c r="L20" s="3">
+        <v>900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>600</v>
       </c>
       <c r="U20" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>4100</v>
       </c>
       <c r="O21" s="3">
         <v>4100</v>
       </c>
       <c r="P21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1489,10 +1528,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2600</v>
       </c>
       <c r="O23" s="3">
         <v>2600</v>
       </c>
       <c r="P23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,16 +1935,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1895,11 +1955,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1907,11 +1967,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>1300</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-900</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
       </c>
       <c r="L32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-600</v>
       </c>
       <c r="U32" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E41" s="3">
         <v>142500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>140200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>136700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>133800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>141800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>139500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>140000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>149200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>153300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>145100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>135700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2480,11 +2569,11 @@
       <c r="H42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>1200</v>
@@ -2492,8 +2581,8 @@
       <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>24</v>
+      <c r="M42" s="3">
+        <v>1200</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>24</v>
@@ -2501,8 +2590,8 @@
       <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2519,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E43" s="3">
         <v>84600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>51400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>83500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>50800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>42400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>46400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,137 +2732,146 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E45" s="3">
         <v>20900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E46" s="3">
         <v>248000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>205800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>210200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>242600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>207900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>223700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>244300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>214900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>224800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>246400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>204400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>206100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>215600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>229900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>100</v>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2776,16 +2880,16 @@
         <v>200</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>24</v>
@@ -2793,8 +2897,8 @@
       <c r="N47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E48" s="3">
         <v>46600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>47000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>29600</v>
       </c>
       <c r="M48" s="3">
         <v>29600</v>
       </c>
       <c r="N48" s="3">
+        <v>29600</v>
+      </c>
+      <c r="O48" s="3">
         <v>29700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>30500</v>
       </c>
       <c r="S48" s="3">
         <v>30500</v>
       </c>
       <c r="T48" s="3">
+        <v>30500</v>
+      </c>
+      <c r="U48" s="3">
         <v>30900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E49" s="3">
         <v>33300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>14300</v>
       </c>
       <c r="I49" s="3">
         <v>14300</v>
       </c>
       <c r="J49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K49" s="3">
         <v>14100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>14000</v>
       </c>
       <c r="L49" s="3">
         <v>14000</v>
       </c>
       <c r="M49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N49" s="3">
         <v>13800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>12000</v>
       </c>
       <c r="P49" s="3">
         <v>12000</v>
       </c>
       <c r="Q49" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="R49" s="3">
         <v>11800</v>
       </c>
       <c r="S49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="T49" s="3">
         <v>11500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E52" s="3">
         <v>22700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>18600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>340100</v>
+      </c>
+      <c r="E54" s="3">
         <v>350800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>286000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>287000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>322800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>275100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>288400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>311400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>317200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>270500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>279900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>291200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>299800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>255600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>257500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>265800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>280900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>258100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,75 +3402,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3350,13 +3483,13 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -3386,249 +3519,264 @@
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E59" s="3">
         <v>167900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>122500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>130900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>143400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>155600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>115600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>126900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>138200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>160200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>117000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>127500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>137800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>103500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E60" s="3">
         <v>179500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>137400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>139400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>173000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>140100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>152200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>166000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>147900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>175400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>128100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>129700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>136100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>149500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>111700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="E61" s="3">
         <v>12000</v>
       </c>
       <c r="F61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G61" s="3">
         <v>12100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E62" s="3">
         <v>29800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>4900</v>
       </c>
       <c r="O62" s="3">
         <v>4900</v>
       </c>
       <c r="P62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206900</v>
+      </c>
+      <c r="E66" s="3">
         <v>221300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>166800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>173800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>173100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>172500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>183900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>144500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>156400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>165900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>194200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>146400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>147900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>154800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>168200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-75600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E76" s="3">
         <v>129500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>118100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>117100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>125300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>105600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>109200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>109600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>111000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>112700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>127900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,22 +4819,23 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -4646,22 +4844,22 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1400</v>
       </c>
       <c r="M83" s="3">
         <v>1400</v>
       </c>
       <c r="N83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O83" s="3">
         <v>1300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1400</v>
       </c>
       <c r="P83" s="3">
         <v>1400</v>
@@ -4673,7 +4871,7 @@
         <v>1400</v>
       </c>
       <c r="S83" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T83" s="3">
         <v>1500</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>13600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5067,58 +5287,61 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1100</v>
       </c>
       <c r="P91" s="3">
         <v>-1100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,46 +5461,49 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1300</v>
       </c>
       <c r="P94" s="3">
         <v>-1300</v>
@@ -5286,16 +5515,19 @@
         <v>-1300</v>
       </c>
       <c r="S94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,19 +5549,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-1500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G96" s="3">
         <v>-1400</v>
@@ -5341,43 +5574,46 @@
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-1400</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-1300</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-1300</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-1300</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-1800</v>
       </c>
       <c r="U100" s="3">
         <v>-1800</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-1800</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1000</v>
       </c>
     </row>
